--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242624C1-E1AC-46FD-B338-564404F6B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5C445-8B84-4748-9B30-394C37A7CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="2340" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Forest</t>
     <phoneticPr fontId="2"/>
@@ -84,19 +84,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Hiroba</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>file_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>forest_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>town_mini_icon</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -133,14 +121,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>farm_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>village_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>モタリケの牧場</t>
     <rPh sb="5" eb="7">
       <t>ボクジョウ</t>
@@ -164,29 +144,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>村の広場</t>
-    <rPh sb="0" eb="1">
-      <t>ムラ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒロバ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Emerald_Shop</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>oldhouse_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>legendtree_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>mountain_mini_icon</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -223,49 +181,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Bar</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>oldhouse_orange_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>berryfarm_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>waterfall_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>town2_gray_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>lake_purple_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>himawari_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>strawberrygarden_icon_mini</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>catgrave_mini_icon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>酒場「ラ・テ～ル」</t>
-    <rPh sb="0" eb="2">
-      <t>サカバ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アメジストの庭</t>
     <rPh sb="6" eb="7">
       <t>ニワ</t>
@@ -325,6 +240,48 @@
   </si>
   <si>
     <t>success_rate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_lv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_maxlv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_icon_001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミナス・シュガー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキー・パッキング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーをまとめて包装する。</t>
+    <rPh sb="9" eb="11">
+      <t>ホウソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュガーを光らせる</t>
+    <rPh sb="5" eb="6">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Luminous_Suger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cookie_Packing</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -708,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -722,61 +679,68 @@
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="9" width="6.75" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="8" max="11" width="6.75" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -791,25 +755,34 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -818,31 +791,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -851,31 +833,37 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -890,25 +878,31 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -923,19 +917,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -950,25 +950,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -983,31 +989,37 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1019,28 +1031,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -1052,28 +1070,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1085,28 +1109,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -1118,28 +1148,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -1151,16 +1187,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1169,10 +1211,10 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1184,28 +1226,34 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1217,28 +1265,34 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <v>18</v>
@@ -1250,22 +1304,28 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1283,12 +1343,18 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>95</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5C445-8B84-4748-9B30-394C37A7CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E741A9F-D350-442B-9A96-4C157303D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="2340" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -33,15 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
-  <si>
-    <t>Forest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Farm</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Star_Mountain</t>
     <phoneticPr fontId="2"/>
@@ -60,46 +52,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>近くの森</t>
-    <rPh sb="0" eb="1">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>村の井戸</t>
-    <rPh sb="0" eb="1">
-      <t>ムラ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ido</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Lavender_field</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エメラルドの森</t>
-    <rPh sb="6" eb="7">
-      <t>モリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Emerald_Forest</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -121,30 +78,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モタリケの牧場</t>
-    <rPh sb="5" eb="7">
-      <t>ボクジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>StrawberryGarden</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>HimawariHill</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BirdSanctuali</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バードサンクチュアリ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Emerald_Shop</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -159,28 +97,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BerryFarm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ベリーファーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CatGrave</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>まもり猫のお墓</t>
-    <rPh sb="3" eb="4">
-      <t>ネコ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ハカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アメジストの庭</t>
     <rPh sb="6" eb="7">
       <t>ニワ</t>
@@ -188,10 +104,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エメラルショップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>skillID</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -282,6 +194,195 @@
   </si>
   <si>
     <t>Cookie_Packing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルミナス・フルーツ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のフルーツを光らせる</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Luminous_Fruits</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・アーク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>液体を扇状に変形する</t>
+    <rPh sb="0" eb="2">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウギジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>液体を渦まき型にする</t>
+    <rPh sb="0" eb="2">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウズ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・ツイスター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Wind_Ark</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フロート・マテリアル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュガーやフルーツを空中に浮かせる</t>
+    <rPh sb="10" eb="12">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Wind_Twister</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Float_Material</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バブル・ミスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アロマの泡を作り出す</t>
+    <rPh sb="4" eb="5">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bubble_Mist</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンド・ミキシング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハンドミキサーに風の力を加えて、より生地に空気を含ませる。</t>
+    <rPh sb="8" eb="9">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Wind_Mixing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェンジ・テクスチャー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子を食べたときの音と食感を別のものに変換する</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Change_Texture</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アルティメット・ハーモニー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料に隠されている音を探し、組み合わせる</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ultimate_Harmony</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -668,7 +769,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -686,43 +787,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -731,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -758,10 +859,10 @@
         <v>10</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>95</v>
@@ -773,16 +874,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -800,10 +901,10 @@
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>95</v>
@@ -815,16 +916,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -842,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -857,13 +958,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -872,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -881,10 +985,10 @@
         <v>10</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>95</v>
@@ -896,13 +1000,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -911,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -920,10 +1027,10 @@
         <v>10</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>95</v>
@@ -935,13 +1042,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -950,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -962,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>95</v>
@@ -974,13 +1084,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -989,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1001,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>95</v>
@@ -1013,13 +1126,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1028,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1040,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <v>95</v>
@@ -1052,13 +1168,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -1067,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1076,10 +1195,10 @@
         <v>10</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <v>95</v>
@@ -1091,13 +1210,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1106,7 +1228,7 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1118,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>95</v>
@@ -1130,13 +1252,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -1145,7 +1270,7 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1157,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M12">
         <v>95</v>
@@ -1169,13 +1294,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -1208,13 +1333,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1247,13 +1372,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1286,13 +1411,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>18</v>
@@ -1325,13 +1450,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>18</v>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E741A9F-D350-442B-9A96-4C157303D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD2C578-B829-4E4E-9266-854F02882D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2340" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3810" yWindow="1995" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,74 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
-  <si>
-    <t>Star_Mountain</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>星降りの丘</t>
-    <rPh sb="0" eb="1">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Lavender_field</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>comment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>忘れられるる島</t>
-    <rPh sb="0" eb="1">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Forget_Island</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>StrawberryGarden</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HimawariHill</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ストロベリーガーデン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ひまわりの丘</t>
-    <rPh sb="5" eb="6">
-      <t>オカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アメジストの庭</t>
-    <rPh sb="6" eb="7">
-      <t>ニワ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -129,21 +68,6 @@
   </si>
   <si>
     <t>skill_type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フリージング・クッキー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Freezing_Cookie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーを凍らせる</t>
-    <rPh sb="5" eb="6">
-      <t>コオ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -330,33 +254,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お菓子を食べたときの音と食感を別のものに変換する</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショクカン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Change_Texture</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アルティメット・ハーモニー</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -382,7 +280,189 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ultimate_Harmony</t>
+    <t>シークレット・ハーモニー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Secret_Harmony</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子を食べたときの音・食感を別のものに変換する</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_icon_003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_icon_002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_icon_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほしのかけらをトッピングする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スター・ブレッシング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Star_Blessing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>植物栽培</t>
+    <rPh sb="0" eb="4">
+      <t>ショクブツサイバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プランターに種を植える</t>
+    <rPh sb="6" eb="7">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Plant_Growth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リターン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Time_Return</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイム・イリュージョン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Time_illusion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンテストの制作時間を２倍に伸ばす</t>
+    <rPh sb="6" eb="8">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンテストの時間を巻き戻す</t>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フリージング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>様々な物体を凍らせる</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Freezing_Spell</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_uselv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>comment_full</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cookie_Study</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーのお勉強</t>
+    <rPh sb="6" eb="8">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーのさくさく感を上げる</t>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーについて勉強することで、よりさくさく感の高いクッキーを焼けるようになる。</t>
+    <rPh sb="8" eb="10">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヤ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -766,82 +846,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="8" max="12" width="6.75" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -856,34 +943,40 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>95</v>
       </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -901,31 +994,37 @@
         <v>10</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>95</v>
       </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -943,34 +1042,40 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>95</v>
       </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -985,34 +1090,40 @@
         <v>10</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>95</v>
       </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1027,34 +1138,40 @@
         <v>10</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
         <v>95</v>
       </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1069,73 +1186,85 @@
         <v>10</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>95</v>
       </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
+      <c r="N8">
         <v>95</v>
       </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1153,34 +1282,40 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>95</v>
       </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1198,34 +1333,40 @@
         <v>0</v>
       </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>95</v>
       </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1237,37 +1378,43 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
         <v>95</v>
       </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1279,28 +1426,37 @@
         <v>10</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
         <v>95</v>
       </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -1309,7 +1465,7 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1318,37 +1474,46 @@
         <v>10</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
         <v>95</v>
       </c>
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1357,37 +1522,46 @@
         <v>10</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
         <v>95</v>
       </c>
+      <c r="O14" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1396,37 +1570,46 @@
         <v>10</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
         <v>95</v>
       </c>
+      <c r="O15" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>18</v>
-      </c>
       <c r="G16">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1435,28 +1618,37 @@
         <v>10</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
         <v>95</v>
       </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
       </c>
       <c r="F17">
         <v>18</v>
@@ -1465,7 +1657,7 @@
         <v>300</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1474,13 +1666,19 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
         <v>95</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD2C578-B829-4E4E-9266-854F02882D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B5360-99DB-4283-A5A9-738603D43F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="1995" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -143,32 +143,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>液体を扇状に変形する</t>
-    <rPh sb="0" eb="2">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>オウギジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>液体を渦まき型にする</t>
-    <rPh sb="0" eb="2">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウズ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ウィンド・ツイスター</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -450,20 +424,92 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クッキーについて勉強することで、よりさくさく感の高いクッキーを焼けるようになる。</t>
+    <t>風の力で、液体を渦まき状にする</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エキタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、液体を扇状に変形する</t>
+    <rPh sb="5" eb="7">
+      <t>エキタイ</t>
+    </rPh>
     <rPh sb="8" eb="10">
+      <t>オウギジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーのお勉強
+タイプ：パッシヴ
+クッキーについて勉強することで、よりさくさく感の高いクッキーを焼けるようになる。
+LV1: さくさく感+5
+LV2: さくさく感+10
+LV3: さくさく感+15
+LV4: さくさく感+20
+LV5: さくさく感+25
+LV6: さくさく感+30
+LV7: さくさく感+35
+LV8: さくさく感+40
+LV9: さくさく感+45
+LV10: さくさく感+50</t>
+    <rPh sb="27" eb="29">
       <t>ベンキョウ</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="41" eb="42">
       <t>カン</t>
     </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="43" eb="44">
       <t>タカ</t>
     </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="50" eb="51">
       <t>ヤ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <rPh sb="70" eb="71">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキー・パッキング
+タイプ：アクティブ
+クッキーをまとめて包装する。
+LVに応じて、クッキーをまとめる個数が変わる。
+LV1: 2個
+LV2: 4個
+LV3: 6個
+LV4: 8個
+LV5: 10個</t>
+    <rPh sb="31" eb="33">
+      <t>ホウソウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_koyuID</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -527,11 +573,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -846,252 +895,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="12" width="6.75" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="10.375" customWidth="1"/>
-    <col min="15" max="15" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="13" width="6.75" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
+        <f t="shared" ref="A2:B17" si="0">ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>95</v>
       </c>
-      <c r="O2" t="s">
-        <v>60</v>
+      <c r="P2" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>45</v>
+      <c r="B3">
+        <v>1001</v>
       </c>
       <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>95</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1002</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>95</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="337.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1003</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -1099,586 +1160,625 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>95</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>45</v>
+      <c r="B6">
+        <v>1004</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>95</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>46</v>
+      <c r="B7">
+        <v>1005</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>95</v>
       </c>
-      <c r="O7" t="s">
-        <v>24</v>
+      <c r="P7" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>46</v>
+      <c r="B8">
+        <v>1006</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>95</v>
       </c>
-      <c r="O8" t="s">
-        <v>25</v>
+      <c r="P8" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>46</v>
+      <c r="B9">
+        <v>1007</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>95</v>
       </c>
-      <c r="O9" t="s">
-        <v>29</v>
+      <c r="P9" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
+      <c r="B10">
+        <v>1008</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>3</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>95</v>
       </c>
-      <c r="O10" t="s">
-        <v>33</v>
+      <c r="P10" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
+      <c r="B11">
+        <v>1009</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
         <v>12</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>3</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>95</v>
       </c>
-      <c r="O11" t="s">
-        <v>36</v>
+      <c r="P11" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>1010</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>7</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>95</v>
       </c>
-      <c r="O12" t="s">
-        <v>43</v>
+      <c r="P12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>1011</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>100</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>7</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
-        <v>40</v>
+      <c r="P13" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>1012</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>100</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>4</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>95</v>
       </c>
-      <c r="O14" t="s">
-        <v>47</v>
+      <c r="P14" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>1013</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
         <v>6</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>200</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>10</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>5</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>95</v>
       </c>
-      <c r="O15" t="s">
-        <v>51</v>
+      <c r="P15" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>1014</v>
+      </c>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
       <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>150</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>10</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>6</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>95</v>
       </c>
-      <c r="O16" t="s">
-        <v>57</v>
+      <c r="P16" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>1015</v>
+      </c>
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17">
         <v>18</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>300</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>10</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>6</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>95</v>
       </c>
-      <c r="O17" t="s">
-        <v>58</v>
+      <c r="P17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B5360-99DB-4283-A5A9-738603D43F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB0685A-8112-4351-A2EF-9D088C37EB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="1995" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3510" yWindow="2895" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -221,14 +221,6 @@
   </si>
   <si>
     <t>Wind_Mixing</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チェンジ・テクスチャー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Change_Texture</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -510,6 +502,110 @@
   <si>
     <t>skill_koyuID</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Heart_Warming</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温かいハート</t>
+    <rPh sb="0" eb="1">
+      <t>アタタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子に、さらに心をこめる。</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラメリーゼ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の魔法で、キャラメリゼ仕上げにする。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Caramelized</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温度管理</t>
+    <rPh sb="0" eb="4">
+      <t>オンドカンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼く際に、温度を細かく指定できる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Temperature_of_Control</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミックス・テクスチャー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mix_Texture</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_icon_005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_icon_007</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_icon_006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_icon_008</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_icon_009</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_icon_010</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -895,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -920,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -950,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
@@ -962,34 +1058,34 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:B17" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A20" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1007,37 +1103,37 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>95</v>
-      </c>
-      <c r="P2" t="s">
-        <v>58</v>
+        <v>100</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1055,40 +1151,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>95</v>
       </c>
-      <c r="P3" t="s">
-        <v>17</v>
+      <c r="P3" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="243.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1100,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1112,34 +1208,34 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>100</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
+      </c>
+      <c r="P4" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="337.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1157,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1165,8 +1261,8 @@
       <c r="O5">
         <v>95</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>67</v>
+      <c r="P5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -1175,25 +1271,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1004</v>
+        <v>2001</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1202,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1211,13 +1307,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -1226,22 +1322,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1005</v>
+        <v>3001</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1262,13 +1358,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
@@ -1277,22 +1373,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1006</v>
+        <v>3002</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1313,13 +1409,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8">
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
@@ -1328,22 +1424,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1007</v>
+        <v>4001</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1370,7 +1466,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
@@ -1379,22 +1475,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1008</v>
+        <v>4002</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1421,7 +1517,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
@@ -1430,22 +1526,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1009</v>
+        <v>4003</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1463,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1472,7 +1568,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
@@ -1481,25 +1577,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1010</v>
+        <v>4004</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1517,13 +1613,13 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
@@ -1532,25 +1628,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1011</v>
+        <v>4005</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1565,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
@@ -1583,19 +1679,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1012</v>
+        <v>5001</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1625,7 +1721,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
@@ -1634,19 +1730,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1013</v>
+        <v>6001</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1676,7 +1772,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
@@ -1685,19 +1781,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1014</v>
+        <v>7001</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1727,7 +1823,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
@@ -1736,19 +1832,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1015</v>
+        <v>7002</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17">
         <v>18</v>
@@ -1778,7 +1874,160 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>8001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>95</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>8002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>9001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <v>95</v>
+      </c>
+      <c r="P20" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB0685A-8112-4351-A2EF-9D088C37EB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19223193-B4FF-4F47-B93C-D79054F0D25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2895" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="5175" yWindow="2205" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19223193-B4FF-4F47-B93C-D79054F0D25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA59378-01FB-42AC-A168-56C8DB2AF549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="2205" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="3570" yWindow="2280" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フロート・マテリアル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>シュガーやフルーツを空中に浮かせる</t>
     <rPh sb="10" eb="12">
       <t>クウチュウ</t>
@@ -412,32 +408,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、液体を渦まき状にする</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>エキタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、液体を扇状に変形する</t>
-    <rPh sb="5" eb="7">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オウギジョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -605,6 +575,384 @@
   </si>
   <si>
     <t>skill_icon_010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ペンギンの造形</t>
+    <rPh sb="5" eb="7">
+      <t>ゾウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Statue_of_Penguin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水あめをペンギンの形にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アロマの泡を作り出す。
+中にドライアイスの霧が入っており、泡が割れることで霧の演出が可能になる。
+泡を作るためには、「アロマオイル」が必要。</t>
+    <rPh sb="4" eb="5">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フローティング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スウィーツ・バタフライ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sweats_Buttelfy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光で作ったちょうちょや葉っぱを飛ばす</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光で作ったちょうちょや葉っぱを飛ばす
+光の演出度が高い。
+ただし、特定のお菓子でないと相性が悪い。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>エンシュツド</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフ・ストリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のお菓子に生命を吹き込むことで、動くお菓子にする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のお菓子に生命を吹き込むことで、動くお菓子にする。
+動きそうなお菓子でないとダメ。
+ツイスターチョコレート　→　ライフ　→　うねうねと生きた動きをするチョコレート
+お菓子のロボット　→　ライフ　→　動くお菓子ロボット
+妖精の見た目の彫刻砂糖菓子　→　ライフ　→　かわいい妖精さんお菓子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Life_Stream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレート・パッキング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocorate_Packing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手作りの温もり</t>
+    <rPh sb="0" eb="2">
+      <t>テヅク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヌク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Warming_Handmade</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子の食感を、底上げし、おいしくする。</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソコア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを扇状に変形する</t>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウギジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを渦まき状にする</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豆焼き</t>
+    <rPh sb="0" eb="1">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豆類を焼いて香りや味を出す。</t>
+    <rPh sb="0" eb="1">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bake_Beans</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リムービング・シェル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豆類の殻を取りさる。</t>
+    <rPh sb="0" eb="2">
+      <t>マメルイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Removing_Shells</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレート・テンパリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレートの温度調整をし、なめらかにする。</t>
+    <rPh sb="7" eb="11">
+      <t>オンドチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocolate_Tempering</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレートの温度調整をし、なめらかにする。
+温度調節はかなり繊細な作業なので、慎重に。</t>
+    <rPh sb="7" eb="11">
+      <t>オンドチョウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チョウセツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレートをまとめて包装する。</t>
+    <rPh sb="11" eb="13">
+      <t>ホウソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレート・パッキング
+タイプ：アクティブ
+チョコレートをまとめて包装する。
+LVに応じて、チョコレートをまとめる個数が変わる。
+LV1: 2個
+LV2: 4個
+LV3: 6個
+LV4: 8個
+LV5: 10個</t>
+    <rPh sb="35" eb="37">
+      <t>ホウソウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>様々な物体を凍らせる
+LVに応じて凍らせられる素材が増えていく。</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -991,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1016,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1046,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
@@ -1058,12 +1406,12 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A20" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A28" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1109,7 +1457,7 @@
         <v>100</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1124,13 +1472,13 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1160,31 +1508,31 @@
         <v>95</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1196,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1208,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>95</v>
-      </c>
-      <c r="P4" t="s">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -1220,19 +1568,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1262,7 +1610,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -1271,25 +1619,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1298,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1307,37 +1655,37 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3001</v>
+        <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1349,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1358,37 +1706,37 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3002</v>
+        <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1400,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1409,34 +1757,34 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4001</v>
+        <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1451,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1460,40 +1808,40 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>95</v>
-      </c>
-      <c r="P9" t="s">
-        <v>64</v>
+        <v>100</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4002</v>
+        <v>2001</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1502,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1511,13 +1859,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>95</v>
       </c>
-      <c r="P10" t="s">
-        <v>63</v>
+      <c r="P10" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
@@ -1526,22 +1874,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4003</v>
+        <v>3001</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1562,13 +1910,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
@@ -1577,22 +1925,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4004</v>
+        <v>3002</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1613,37 +1961,37 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4005</v>
+        <v>3003</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1661,43 +2009,43 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
-        <v>34</v>
+      <c r="P13" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>6</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1715,13 +2063,13 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14">
         <v>95</v>
       </c>
-      <c r="P14" t="s">
-        <v>43</v>
+      <c r="P14" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
@@ -1730,25 +2078,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6001</v>
+        <v>4002</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1766,13 +2114,13 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
@@ -1781,25 +2129,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7001</v>
+        <v>4003</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1817,40 +2165,40 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7002</v>
+        <v>4004</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1868,13 +2216,13 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <v>95</v>
       </c>
-      <c r="P17" t="s">
-        <v>54</v>
+      <c r="P17" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
@@ -1883,25 +2231,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8001</v>
+        <v>4005</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1916,16 +2264,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
@@ -1934,25 +2282,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8002</v>
+        <v>4006</v>
       </c>
       <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1970,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
@@ -1985,19 +2333,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9001</v>
+        <v>5001</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -2021,13 +2369,421 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O20">
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>6001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>95</v>
+      </c>
+      <c r="P21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>7001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>150</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>95</v>
+      </c>
+      <c r="P22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>7002</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>300</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>95</v>
+      </c>
+      <c r="P23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>8001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>95</v>
+      </c>
+      <c r="P24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>8002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>95</v>
+      </c>
+      <c r="P25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>9001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <v>95</v>
+      </c>
+      <c r="P26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>9002</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+      <c r="O27">
+        <v>95</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>9003</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>8</v>
+      </c>
+      <c r="O28">
+        <v>95</v>
+      </c>
+      <c r="P28" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA59378-01FB-42AC-A168-56C8DB2AF549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA50EEED-0821-4C36-B6BF-FB30346F16C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3570" yWindow="2280" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3225" yWindow="1935" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -811,28 +811,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>豆類を焼いて香りや味を出す。</t>
-    <rPh sb="0" eb="1">
-      <t>マメ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ルイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Bake_Beans</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -952,6 +930,40 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豆類を焼いて香りや味を出す。豆殻も一緒に取る。</t>
+    <rPh sb="0" eb="1">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1341,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1529,7 +1541,7 @@
         <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1559,7 +1571,7 @@
         <v>100</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -1676,13 +1688,13 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1712,7 +1724,7 @@
         <v>100</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1727,13 +1739,13 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
         <v>105</v>
-      </c>
-      <c r="F8" t="s">
-        <v>106</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1763,7 +1775,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1778,13 +1790,13 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
         <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1814,7 +1826,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1865,7 +1877,7 @@
         <v>95</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA50EEED-0821-4C36-B6BF-FB30346F16C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C503AD5-484A-44B5-A88A-CF38BDF589C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="1935" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2880" yWindow="1590" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="117">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -964,6 +964,49 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを渦まき状にする
+ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>フアンテイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを扇状に変形する
+ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウギジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1353,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2081,10 +2124,10 @@
         <v>95</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2131,8 +2174,8 @@
       <c r="O15">
         <v>95</v>
       </c>
-      <c r="P15" t="s">
-        <v>101</v>
+      <c r="P15" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C503AD5-484A-44B5-A88A-CF38BDF589C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97159C1B-D89A-4E05-97D7-24937566C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="1590" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -589,16 +589,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>水あめをペンギンの形にする。</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カタチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アロマの泡を作り出す。
 中にドライアイスの霧が入っており、泡が割れることで霧の演出が可能になる。
 泡を作るためには、「アロマオイル」が必要。</t>
@@ -1007,6 +997,72 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>植物栽培&lt;未使用&gt;</t>
+    <rPh sb="0" eb="4">
+      <t>ショクブツサイバイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Plant_Growth_NOUSE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Statue_of_Bear</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水あめ・チョコレートをペンギンの形にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水あめ・チョコレートをくまの形にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水あめ・チョコレートをウサギの形にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Statue_of_Rabitts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くまさんの造形</t>
+    <rPh sb="5" eb="7">
+      <t>ゾウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウサギさんの造形</t>
+    <rPh sb="6" eb="8">
+      <t>ゾウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1394,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1466,7 +1522,7 @@
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A28" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A31" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1578,13 +1634,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1614,7 +1670,7 @@
         <v>100</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -1623,25 +1679,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1665,7 +1721,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -1674,19 +1730,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1701,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1710,37 +1766,37 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O6">
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1752,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1761,13 +1817,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1776,19 +1832,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1803,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1812,13 +1868,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O8">
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1827,19 +1883,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C9" t="s">
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1854,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1863,50 +1919,50 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O9">
         <v>100</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>110</v>
+      <c r="P9" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2001</v>
+        <v>1008</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
       <c r="L10">
         <v>0</v>
       </c>
@@ -1914,40 +1970,40 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1956,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1965,13 +2021,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>95</v>
       </c>
-      <c r="P11" t="s">
-        <v>17</v>
+      <c r="P11" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
@@ -1980,22 +2036,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2022,28 +2078,28 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -2072,32 +2128,32 @@
       <c r="O13">
         <v>95</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>90</v>
+      <c r="P13" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4001</v>
+        <v>3003</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2118,37 +2174,37 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14">
         <v>95</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2178,28 +2234,28 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2225,29 +2281,29 @@
       <c r="O16">
         <v>95</v>
       </c>
-      <c r="P16" t="s">
-        <v>26</v>
+      <c r="P16" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2276,32 +2332,32 @@
       <c r="O17">
         <v>95</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>85</v>
+      <c r="P17" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2319,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -2327,8 +2383,8 @@
       <c r="O18">
         <v>95</v>
       </c>
-      <c r="P18" t="s">
-        <v>33</v>
+      <c r="P18" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
@@ -2337,22 +2393,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2370,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -2379,7 +2435,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
@@ -2388,25 +2444,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5001</v>
+        <v>4006</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2424,13 +2480,13 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
@@ -2439,25 +2495,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6001</v>
+        <v>4007</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2475,13 +2531,13 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
@@ -2490,25 +2546,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7001</v>
+        <v>4007</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2526,13 +2582,13 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
@@ -2541,25 +2597,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7002</v>
+        <v>5001</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2577,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O23">
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
@@ -2592,25 +2648,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8001</v>
+        <v>6001</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>6</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2628,13 +2684,13 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O24">
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
@@ -2643,25 +2699,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8002</v>
+        <v>7001</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G25">
         <v>6</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2679,13 +2735,13 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O25">
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
@@ -2694,25 +2750,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9001</v>
+        <v>7002</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2730,40 +2786,40 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O26">
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9002</v>
+        <v>8001</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>6</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2781,13 +2837,13 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O27">
         <v>95</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>93</v>
+      <c r="P27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
@@ -2796,25 +2852,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9003</v>
+        <v>8002</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2829,16 +2885,169 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O28">
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>99</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>9001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>8</v>
+      </c>
+      <c r="O29">
+        <v>95</v>
+      </c>
+      <c r="P29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>9002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>8</v>
+      </c>
+      <c r="O30">
+        <v>95</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>9003</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>95</v>
+      </c>
+      <c r="P31" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97159C1B-D89A-4E05-97D7-24937566C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58302A03-3ABC-461B-B12B-745E18E60ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1590" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4020" yWindow="2340" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -898,32 +898,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>様々な物体を凍らせる
-LVに応じて凍らせられる素材が増えていく。</t>
-    <rPh sb="0" eb="2">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブッタイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コオ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コオ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>豆類を焼いて香りや味を出す。豆殻も一緒に取る。</t>
     <rPh sb="0" eb="1">
       <t>マメ</t>
@@ -1063,6 +1037,87 @@
     <t>ウサギさんの造形</t>
     <rPh sb="6" eb="8">
       <t>ゾウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイスキューブ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氷を精製する</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ice_Cube</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オーバー・ラン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイス水溶液に空気をふくませ、なめらかさを出す</t>
+    <rPh sb="3" eb="6">
+      <t>スイヨウエキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Over_Run</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>様々な物体を凍らせる
+ゼリー凍る。
+砂糖水とジュース　アイスキャンデーに。
+お花　フリーズフラワー　トッピングに使える。
+くだもの　冷凍フルーツを作れる
+クレープ　冷凍クレープの自販機
+LV1　アイスクリームの水溶液
+LV2　液体系全般
+LV3　くだもの
+LV4　お花
+LV5　おかし全般
+LVに応じて凍らせられる素材が増えていく。</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>レイトウ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>ジハンキ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>フ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1154,9 +1209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1194,7 +1249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1300,7 +1355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1442,7 +1497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1450,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1522,7 +1577,7 @@
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A31" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1844,7 +1899,7 @@
         <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1874,7 +1929,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2027,43 +2082,43 @@
         <v>95</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2072,40 +2127,40 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3002</v>
+        <v>2003</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2114,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2123,37 +2178,37 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2179,32 +2234,32 @@
       <c r="O14">
         <v>95</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>89</v>
+      <c r="P14" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4001</v>
+        <v>3002</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2225,13 +2280,13 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>95</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>115</v>
+      <c r="P15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -2240,22 +2295,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4002</v>
+        <v>3003</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2276,37 +2331,37 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <v>95</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2332,8 +2387,8 @@
       <c r="O17">
         <v>95</v>
       </c>
-      <c r="P17" t="s">
-        <v>26</v>
+      <c r="P17" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -2342,22 +2397,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2384,7 +2439,7 @@
         <v>95</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
@@ -2393,22 +2448,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2426,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -2435,28 +2490,28 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2485,8 +2540,8 @@
       <c r="O20">
         <v>95</v>
       </c>
-      <c r="P20" t="s">
-        <v>119</v>
+      <c r="P20" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
@@ -2495,22 +2550,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2528,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -2537,7 +2592,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
@@ -2546,19 +2601,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2588,7 +2643,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
@@ -2597,25 +2652,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5001</v>
+        <v>4007</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2633,13 +2688,13 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O23">
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
@@ -2648,25 +2703,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6001</v>
+        <v>4007</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2684,13 +2739,13 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
@@ -2699,25 +2754,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7001</v>
+        <v>5001</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G25">
         <v>6</v>
       </c>
       <c r="H25">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2735,13 +2790,13 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O25">
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
@@ -2750,25 +2805,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7002</v>
+        <v>6001</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2786,13 +2841,13 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O26">
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
@@ -2801,25 +2856,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8001</v>
+        <v>7001</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G27">
         <v>6</v>
       </c>
       <c r="H27">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2837,13 +2892,13 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O27">
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
@@ -2852,25 +2907,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8002</v>
+        <v>7002</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2888,13 +2943,13 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O28">
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
@@ -2903,25 +2958,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9001</v>
+        <v>8001</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>6</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2939,34 +2994,34 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O29">
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9002</v>
+        <v>8002</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -2990,13 +3045,13 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O30">
         <v>95</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>92</v>
+      <c r="P30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
@@ -3005,25 +3060,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9003</v>
+        <v>9001</v>
       </c>
       <c r="C31" t="s">
         <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3038,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>8</v>
@@ -3047,6 +3102,108 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>9002</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <v>95</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>9003</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+      <c r="O33">
+        <v>95</v>
+      </c>
+      <c r="P33" t="s">
         <v>98</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58302A03-3ABC-461B-B12B-745E18E60ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BCA6CB-1D97-484D-804C-322D1B2588BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2340" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3180" yWindow="1965" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -474,27 +474,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Heart_Warming</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>温かいハート</t>
-    <rPh sb="0" eb="1">
-      <t>アタタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お菓子に、さらに心をこめる。</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ココロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>キャラメリーゼ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1080,6 +1059,63 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>水をペンギンの形の氷にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コオリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水をくまの形の氷にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水をウサギの形の氷にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しんじつのハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のお菓子に、さらに心をこめて仕上げる。</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>True_Heart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>様々な物体を凍らせる
 ゼリー凍る。
 砂糖水とジュース　アイスキャンデーに。
@@ -1087,7 +1123,7 @@
 くだもの　冷凍フルーツを作れる
 クレープ　冷凍クレープの自販機
 LV1　アイスクリームの水溶液
-LV2　液体系全般
+LV2　みず・ミルク系
 LV3　くだもの
 LV4　お花
 LV5　おかし全般
@@ -1107,16 +1143,16 @@
     <rPh sb="90" eb="93">
       <t>ジハンキ</t>
     </rPh>
-    <rPh sb="150" eb="151">
+    <rPh sb="152" eb="153">
       <t>オウ</t>
     </rPh>
-    <rPh sb="153" eb="154">
+    <rPh sb="155" eb="156">
       <t>コオ</t>
     </rPh>
-    <rPh sb="159" eb="161">
+    <rPh sb="161" eb="163">
       <t>ソザイ</t>
     </rPh>
-    <rPh sb="162" eb="163">
+    <rPh sb="164" eb="165">
       <t>フ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1508,7 +1544,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1689,13 +1725,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1725,7 +1761,7 @@
         <v>100</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -1737,7 +1773,7 @@
         <v>1009</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
@@ -1788,16 +1824,16 @@
         <v>1003</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1827,7 +1863,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -1839,16 +1875,16 @@
         <v>1004</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1863,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1878,7 +1914,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1890,16 +1926,16 @@
         <v>1006</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1929,7 +1965,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1941,16 +1977,16 @@
         <v>1007</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1980,7 +2016,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1992,16 +2028,16 @@
         <v>1008</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2031,7 +2067,7 @@
         <v>100</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2082,7 +2118,7 @@
         <v>95</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2097,13 +2133,13 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2118,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2133,7 +2169,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2148,13 +2184,13 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2184,7 +2220,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
@@ -2193,22 +2229,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2229,13 +2265,13 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
@@ -2244,22 +2280,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3002</v>
+        <v>2005</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2280,37 +2316,37 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3003</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2331,37 +2367,37 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>95</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>89</v>
+      <c r="P16" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2373,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2382,37 +2418,37 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17">
         <v>95</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>114</v>
+      <c r="P17" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4002</v>
+        <v>3002</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2424,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2433,37 +2469,37 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18">
         <v>95</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>113</v>
+      <c r="P18" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4003</v>
+        <v>3003</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
         <v>85</v>
       </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2475,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2484,37 +2520,37 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19">
         <v>95</v>
       </c>
-      <c r="P19" t="s">
-        <v>26</v>
+      <c r="P19" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2526,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2541,31 +2577,31 @@
         <v>95</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2577,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -2591,8 +2627,8 @@
       <c r="O21">
         <v>95</v>
       </c>
-      <c r="P21" t="s">
-        <v>33</v>
+      <c r="P21" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
@@ -2601,19 +2637,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4006</v>
+        <v>4003</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2628,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2643,28 +2679,28 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4007</v>
+        <v>4004</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2679,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2693,8 +2729,8 @@
       <c r="O23">
         <v>95</v>
       </c>
-      <c r="P23" t="s">
-        <v>119</v>
+      <c r="P23" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
@@ -2703,22 +2739,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2736,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>3</v>
@@ -2745,7 +2781,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
@@ -2757,7 +2793,7 @@
         <v>5001</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
@@ -2781,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2808,13 +2844,13 @@
         <v>6001</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
         <v>46</v>
@@ -2859,7 +2895,7 @@
         <v>7001</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
@@ -2883,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2910,7 +2946,7 @@
         <v>7002</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>49</v>
@@ -2934,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2961,13 +2997,13 @@
         <v>8001</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
         <v>38</v>
@@ -2985,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3012,7 +3048,7 @@
         <v>8002</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
         <v>37</v>
@@ -3036,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3063,16 +3099,16 @@
         <v>9001</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="G31">
         <v>6</v>
@@ -3087,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3102,7 +3138,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -3114,16 +3150,16 @@
         <v>9002</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3153,7 +3189,7 @@
         <v>95</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
@@ -3165,16 +3201,16 @@
         <v>9003</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3204,7 +3240,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BCA6CB-1D97-484D-804C-322D1B2588BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABA1A98-2145-4E39-AA3C-8C55F14F5478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1965" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3525" yWindow="2310" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="135">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1155,6 +1155,10 @@
     <rPh sb="164" eb="165">
       <t>フ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cost_time</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1541,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1558,10 +1562,11 @@
     <col min="9" max="13" width="6.75" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="10.375" customWidth="1"/>
-    <col min="16" max="16" width="25.125" customWidth="1"/>
+    <col min="16" max="16" width="7.875" customWidth="1"/>
+    <col min="17" max="17" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1608,10 +1613,13 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
         <v>0</v>
@@ -1658,11 +1666,14 @@
       <c r="O2">
         <v>100</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1709,11 +1720,14 @@
       <c r="O3">
         <v>95</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1760,11 +1774,14 @@
       <c r="O4">
         <v>100</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1811,11 +1828,14 @@
       <c r="O5">
         <v>95</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1862,11 +1882,14 @@
       <c r="O6">
         <v>95</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1913,11 +1936,14 @@
       <c r="O7">
         <v>95</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1964,11 +1990,14 @@
       <c r="O8">
         <v>100</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2015,11 +2044,14 @@
       <c r="O9">
         <v>100</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2066,11 +2098,14 @@
       <c r="O10">
         <v>100</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2117,11 +2152,14 @@
       <c r="O11">
         <v>95</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2168,11 +2206,14 @@
       <c r="O12">
         <v>95</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2219,11 +2260,14 @@
       <c r="O13">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2270,11 +2314,14 @@
       <c r="O14">
         <v>95</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2321,11 +2368,14 @@
       <c r="O15">
         <v>95</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2372,11 +2422,14 @@
       <c r="O16">
         <v>95</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2423,11 +2476,14 @@
       <c r="O17">
         <v>95</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2474,11 +2530,14 @@
       <c r="O18">
         <v>95</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2525,11 +2584,14 @@
       <c r="O19">
         <v>95</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2576,11 +2638,14 @@
       <c r="O20">
         <v>95</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2627,11 +2692,14 @@
       <c r="O21">
         <v>95</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2678,11 +2746,14 @@
       <c r="O22">
         <v>95</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2729,11 +2800,14 @@
       <c r="O23">
         <v>95</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2780,11 +2854,14 @@
       <c r="O24">
         <v>95</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2831,11 +2908,14 @@
       <c r="O25">
         <v>95</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2882,11 +2962,14 @@
       <c r="O26">
         <v>95</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2933,11 +3016,14 @@
       <c r="O27">
         <v>95</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2984,11 +3070,14 @@
       <c r="O28">
         <v>95</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3035,11 +3124,14 @@
       <c r="O29">
         <v>95</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3086,11 +3178,14 @@
       <c r="O30">
         <v>95</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="Q30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3137,11 +3232,14 @@
       <c r="O31">
         <v>95</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3188,11 +3286,14 @@
       <c r="O32">
         <v>95</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3239,7 +3340,10 @@
       <c r="O33">
         <v>95</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33">
+        <v>6</v>
+      </c>
+      <c r="Q33" t="s">
         <v>95</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABA1A98-2145-4E39-AA3C-8C55F14F5478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E1B12D-ECCD-46DA-B601-0908243E4950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2310" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3870" yWindow="2655" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -725,19 +725,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お菓子の食感を、底上げし、おいしくする。</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショクカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソコア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>風の力で、流体や柔らかいものを扇状に変形する</t>
     <rPh sb="5" eb="7">
       <t>リュウタイ</t>
@@ -1092,10 +1079,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>しんじつのハート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>特定のお菓子に、さらに心をこめて仕上げる。</t>
     <rPh sb="0" eb="2">
       <t>トクテイ</t>
@@ -1109,10 +1092,6 @@
     <rPh sb="16" eb="18">
       <t>シア</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>True_Heart</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1159,6 +1138,48 @@
   </si>
   <si>
     <t>cost_time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子の食感を底上げし、おいしくする。</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソコア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Non</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skill_lvSelect</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Use</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幸せの思い出</t>
+    <rPh sb="0" eb="1">
+      <t>シアワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Memories_of_Happy</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1545,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1559,14 +1580,14 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="13" width="6.75" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="10.375" customWidth="1"/>
-    <col min="16" max="16" width="7.875" customWidth="1"/>
-    <col min="17" max="17" width="25.125" customWidth="1"/>
+    <col min="9" max="14" width="6.75" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="7.875" customWidth="1"/>
+    <col min="18" max="18" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1604,22 +1625,25 @@
         <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
         <v>0</v>
@@ -1646,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1657,23 +1681,26 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="M2" t="s">
+        <v>133</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>100</v>
       </c>
-      <c r="P2">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1711,23 +1738,26 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="M3" t="s">
+        <v>133</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>95</v>
       </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1745,7 +1775,7 @@
         <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1754,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1765,23 +1795,26 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>1</v>
+      <c r="M4" t="s">
+        <v>133</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>100</v>
       </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>108</v>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1819,23 +1852,26 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>1</v>
+      <c r="M5" t="s">
+        <v>133</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>95</v>
       </c>
-      <c r="P5">
-        <v>6</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1873,23 +1909,26 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>1</v>
+      <c r="M6" t="s">
+        <v>133</v>
       </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>9</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>95</v>
       </c>
-      <c r="P6">
-        <v>6</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1927,23 +1966,26 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>1</v>
+      <c r="M7" t="s">
+        <v>133</v>
       </c>
       <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>9</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>95</v>
       </c>
-      <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1955,13 +1997,13 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1981,23 +2023,26 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>1</v>
+      <c r="M8" t="s">
+        <v>133</v>
       </c>
       <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>9</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>100</v>
       </c>
-      <c r="P8">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>109</v>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2009,14 +2054,14 @@
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
         <v>100</v>
       </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
       <c r="G9">
         <v>6</v>
       </c>
@@ -2035,23 +2080,26 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="M9" t="s">
+        <v>133</v>
       </c>
       <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>9</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>100</v>
       </c>
-      <c r="P9">
-        <v>6</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>101</v>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2063,13 +2111,13 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
         <v>103</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2089,23 +2137,26 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="M10" t="s">
+        <v>133</v>
       </c>
       <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>9</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>100</v>
       </c>
-      <c r="P10">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>106</v>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2143,23 +2194,26 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="M11" t="s">
+        <v>133</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>95</v>
       </c>
-      <c r="P11">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>133</v>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2171,13 +2225,13 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
         <v>121</v>
-      </c>
-      <c r="F12" t="s">
-        <v>122</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2197,23 +2251,26 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="M12" t="s">
+        <v>133</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>95</v>
       </c>
-      <c r="P12">
-        <v>6</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>122</v>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2225,13 +2282,13 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
         <v>124</v>
-      </c>
-      <c r="F13" t="s">
-        <v>125</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2251,23 +2308,26 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>1</v>
+      <c r="M13" t="s">
+        <v>133</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>95</v>
       </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>125</v>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2285,7 +2345,7 @@
         <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2305,23 +2365,26 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>1</v>
+      <c r="M14" t="s">
+        <v>133</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>95</v>
       </c>
-      <c r="P14">
-        <v>6</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>115</v>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2333,13 +2396,13 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -2359,23 +2422,26 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="M15" t="s">
+        <v>133</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>95</v>
       </c>
-      <c r="P15">
-        <v>6</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>116</v>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2387,13 +2453,13 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2413,23 +2479,26 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>1</v>
+      <c r="M16" t="s">
+        <v>133</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>95</v>
       </c>
-      <c r="P16">
-        <v>6</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>117</v>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2467,23 +2536,26 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>1</v>
+      <c r="M17" t="s">
+        <v>133</v>
       </c>
       <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>95</v>
       </c>
-      <c r="P17">
-        <v>6</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2521,23 +2593,26 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>1</v>
+      <c r="M18" t="s">
+        <v>133</v>
       </c>
       <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
         <v>2</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>95</v>
       </c>
-      <c r="P18">
-        <v>6</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2575,23 +2650,26 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>1</v>
+      <c r="M19" t="s">
+        <v>133</v>
       </c>
       <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
         <v>2</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>95</v>
       </c>
-      <c r="P19">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2609,7 +2687,7 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -2629,23 +2707,26 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>1</v>
+      <c r="M20" t="s">
+        <v>135</v>
       </c>
       <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <v>3</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>95</v>
       </c>
-      <c r="P20">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>111</v>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2663,7 +2744,7 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2683,23 +2764,26 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>1</v>
+      <c r="M21" t="s">
+        <v>135</v>
       </c>
       <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>3</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>95</v>
       </c>
-      <c r="P21">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>110</v>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2737,23 +2821,26 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>1</v>
+      <c r="M22" t="s">
+        <v>133</v>
       </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>3</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>95</v>
       </c>
-      <c r="P22">
-        <v>6</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2791,23 +2878,26 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>1</v>
+      <c r="M23" t="s">
+        <v>133</v>
       </c>
       <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
         <v>3</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>95</v>
       </c>
-      <c r="P23">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2845,23 +2935,26 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
+      <c r="M24" t="s">
+        <v>133</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>95</v>
       </c>
-      <c r="P24">
-        <v>6</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2899,23 +2992,26 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>1</v>
+      <c r="M25" t="s">
+        <v>133</v>
       </c>
       <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>4</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>95</v>
       </c>
-      <c r="P25">
-        <v>6</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2927,10 +3023,10 @@
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
         <v>46</v>
@@ -2953,23 +3049,26 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>1</v>
+      <c r="M26" t="s">
+        <v>133</v>
       </c>
       <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
         <v>5</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>95</v>
       </c>
-      <c r="P26">
-        <v>6</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3007,23 +3106,26 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>1</v>
+      <c r="M27" t="s">
+        <v>133</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
         <v>95</v>
       </c>
-      <c r="P27">
-        <v>6</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3061,23 +3163,26 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>1</v>
+      <c r="M28" t="s">
+        <v>133</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
         <v>95</v>
       </c>
-      <c r="P28">
-        <v>6</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3115,23 +3220,26 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>1</v>
+      <c r="M29" t="s">
+        <v>133</v>
       </c>
       <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
         <v>7</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>95</v>
       </c>
-      <c r="P29">
-        <v>6</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3169,23 +3277,26 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>1</v>
+      <c r="M30" t="s">
+        <v>133</v>
       </c>
       <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
         <v>7</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>95</v>
       </c>
-      <c r="P30">
-        <v>6</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3197,19 +3308,19 @@
         <v>77</v>
       </c>
       <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
         <v>132</v>
       </c>
-      <c r="E31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" t="s">
-        <v>131</v>
-      </c>
       <c r="G31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3218,28 +3329,31 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>1</v>
+      <c r="M31" t="s">
+        <v>133</v>
       </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>8</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>95</v>
       </c>
-      <c r="P31">
-        <v>6</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>131</v>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3277,23 +3391,26 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>1</v>
+      <c r="M32" t="s">
+        <v>133</v>
       </c>
       <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
         <v>8</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>95</v>
       </c>
-      <c r="P32">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3305,46 +3422,49 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>133</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>8</v>
+      </c>
+      <c r="P33">
         <v>95</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>10</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>8</v>
-      </c>
-      <c r="O33">
-        <v>95</v>
-      </c>
-      <c r="P33">
-        <v>6</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>95</v>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E1B12D-ECCD-46DA-B601-0908243E4950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1673FE7E-E3AC-4AF2-9A54-210A3D7907CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="2655" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3630" yWindow="1815" windowWidth="23310" windowHeight="12720" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="144">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1180,6 +1180,54 @@
   </si>
   <si>
     <t>Memories_of_Happy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Flower_Potion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フラワー・ポーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草花のエキスを抽出し、ポーションを作る</t>
+    <rPh sb="0" eb="2">
+      <t>クサバナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アブタラ・カブタラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>謎の呪文により、別のお菓子に変えてしまう。</t>
+    <rPh sb="0" eb="1">
+      <t>ナゾ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュモン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AbraCadabra</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1566,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1645,7 +1693,7 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A35" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1667,7 +1715,7 @@
         <v>6</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1724,7 +1772,7 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1748,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1781,7 +1829,7 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1838,7 +1886,7 @@
         <v>6</v>
       </c>
       <c r="H5">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1862,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1877,25 +1925,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1916,16 +1964,16 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -1934,25 +1982,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1961,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1976,40 +2024,40 @@
         <v>9</v>
       </c>
       <c r="P7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2018,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2039,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2048,25 +2096,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9">
         <v>6</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2075,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2096,7 +2144,7 @@
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2105,25 +2153,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2132,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2152,44 +2200,44 @@
       <c r="Q10">
         <v>6</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>105</v>
+      <c r="R10" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2001</v>
+        <v>1008</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>2</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2201,16 +2249,16 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P11">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2219,34 +2267,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2261,13 +2309,13 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>6</v>
       </c>
-      <c r="R12" t="s">
-        <v>121</v>
+      <c r="R12" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2276,34 +2324,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2318,40 +2366,40 @@
         <v>1</v>
       </c>
       <c r="P13">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2360,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2375,13 +2423,13 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>6</v>
       </c>
       <c r="R14" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -2390,25 +2438,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2432,13 +2480,13 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>6</v>
       </c>
       <c r="R15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -2447,25 +2495,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2489,13 +2537,13 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>6</v>
       </c>
       <c r="R16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
@@ -2504,25 +2552,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3001</v>
+        <v>2006</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2531,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2543,16 +2591,16 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q17">
         <v>6</v>
       </c>
       <c r="R17" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.4">
@@ -2561,25 +2609,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2603,40 +2651,40 @@
         <v>2</v>
       </c>
       <c r="P18">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q18">
         <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2660,40 +2708,40 @@
         <v>2</v>
       </c>
       <c r="P19">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q19">
         <v>6</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>86</v>
+      <c r="R19" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4001</v>
+        <v>3003</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2702,55 +2750,55 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q20">
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2759,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2774,40 +2822,40 @@
         <v>3</v>
       </c>
       <c r="P21">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q21">
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2822,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2831,40 +2879,40 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" t="s">
-        <v>26</v>
+      <c r="R22" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2873,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2888,40 +2936,40 @@
         <v>3</v>
       </c>
       <c r="P23">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>81</v>
+      <c r="R23" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2930,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2939,19 +2987,19 @@
         <v>133</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
       <c r="P24">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q24">
         <v>6</v>
       </c>
-      <c r="R24" t="s">
-        <v>33</v>
+      <c r="R24" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -2960,25 +3008,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5001</v>
+        <v>4005</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2987,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2996,19 +3044,19 @@
         <v>133</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q25">
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -3017,25 +3065,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6001</v>
+        <v>5001</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G26">
         <v>6</v>
       </c>
       <c r="H26">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -3044,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3056,16 +3104,16 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q26">
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3074,25 +3122,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7001</v>
+        <v>6001</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G27">
         <v>6</v>
       </c>
       <c r="H27">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -3101,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3113,16 +3161,16 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q27">
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3131,25 +3179,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C28" t="s">
         <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -3173,13 +3221,13 @@
         <v>6</v>
       </c>
       <c r="P28">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q28">
         <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3188,25 +3236,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3227,16 +3275,16 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P29">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q29">
         <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -3245,25 +3293,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C30" t="s">
         <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3287,13 +3335,13 @@
         <v>7</v>
       </c>
       <c r="P30">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q30">
         <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -3302,25 +3350,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3329,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3338,46 +3386,46 @@
         <v>133</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q31">
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C32" t="s">
         <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3395,46 +3443,46 @@
         <v>133</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>8</v>
       </c>
       <c r="P32">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q32">
         <v>6</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>89</v>
+      <c r="R32" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C33" t="s">
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="G33">
         <v>6</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -3443,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3458,12 +3506,126 @@
         <v>8</v>
       </c>
       <c r="P33">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q33">
         <v>6</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>9004</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>133</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>8</v>
+      </c>
+      <c r="P34">
+        <v>100</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>9003</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="P35">
+        <v>100</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1673FE7E-E3AC-4AF2-9A54-210A3D7907CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850D602-27F9-4D2A-952F-0E2ECF74C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1815" windowWidth="23310" windowHeight="12720" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3975" yWindow="2160" windowWidth="23310" windowHeight="12720" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="145">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -568,54 +568,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アロマの泡を作り出す。
-中にドライアイスの霧が入っており、泡が割れることで霧の演出が可能になる。
-泡を作るためには、「アロマオイル」が必要。</t>
-    <rPh sb="4" eb="5">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キリ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>キリ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>フローティング</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -725,22 +677,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、流体や柔らかいものを扇状に変形する</t>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>オウギジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>風の力で、流体や柔らかいものを渦まき状にする</t>
     <rPh sb="0" eb="1">
       <t>カゼ</t>
@@ -775,19 +711,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>豆類の殻を取りさる。</t>
-    <rPh sb="0" eb="2">
-      <t>マメルイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Removing_Shells</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -796,37 +719,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チョコレートの温度調整をし、なめらかにする。</t>
-    <rPh sb="7" eb="11">
-      <t>オンドチョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Chocolate_Tempering</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チョコレートの温度調整をし、なめらかにする。
-温度調節はかなり繊細な作業なので、慎重に。</t>
-    <rPh sb="7" eb="11">
-      <t>オンドチョウセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>チョウセツ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>センサイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シンチョウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -898,49 +791,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>風の力で、流体や柔らかいものを渦まき状にする
-ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>フアンテイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風の力で、流体や柔らかいものを扇状に変形する
-ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
-    <rPh sb="5" eb="7">
-      <t>リュウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>オウギジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>植物栽培&lt;未使用&gt;</t>
     <rPh sb="0" eb="4">
       <t>ショクブツサイバイ</t>
@@ -959,36 +809,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>水あめ・チョコレートをペンギンの形にする。</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カタチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水あめ・チョコレートをくまの形にする。</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カタチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水あめ・チョコレートをウサギの形にする。</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カタチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Statue_of_Rabitts</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1029,53 +849,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アイス水溶液に空気をふくませ、なめらかさを出す</t>
-    <rPh sb="3" eb="6">
-      <t>スイヨウエキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Over_Run</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水をペンギンの形の氷にする。</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コオリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水をくまの形の氷にする。</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カタチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水をウサギの形の氷にする。</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カタチ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1183,14 +957,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Flower_Potion</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フラワー・ポーション</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>草花のエキスを抽出し、ポーションを作る</t>
     <rPh sb="0" eb="2">
       <t>クサバナ</t>
@@ -1228,6 +994,296 @@
   </si>
   <si>
     <t>AbraCadabra</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アロマ・ポーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aroma_Potion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アロマの泡を作り出す。
+中にドライアイスの霧が入っており、泡が割れることで霧の演出が可能になる。
+泡を作るためには、各お花に対応する「アロマポーション」が必要。</t>
+    <rPh sb="4" eb="5">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイス水溶液を魔法でかき混ぜて、なめらかさを出す</t>
+    <rPh sb="3" eb="6">
+      <t>スイヨウエキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイス水溶液を魔法でかき混ぜて、なめらかさを出す</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天使の羽の造形</t>
+    <rPh sb="0" eb="2">
+      <t>テンシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハネ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゾウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水あめ、チョコレートをペンギンの形にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水あめ、チョコレートをくまの形にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水あめ、チョコレートを天使の羽の形にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハネ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水あめ、チョコレートをウサギの形にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを鋭い円弧状に変形する</t>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>エンコジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを鋭い円弧状に変形する
+ウィンドアークをかけたあとは、素材が不安定なため、フリージングで固定する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風の力で、流体や柔らかいものを渦まき状にする
+ウィンドツイスターをかけたあとは、素材が不安定なため、フリージングで固定する。
+レベルに応じて、形を変形できる。
+LV1 → ちいさな渦巻型
+LV2 → 空中に浮かぶハート型
+LV3 → 大きな竜巻型</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リュウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>フアンテイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヘンケイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ウズマキ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>タツマキ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュガーやフルーツを空中に浮かせて、飾ることができる。</t>
+    <rPh sb="10" eb="12">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カカオマスの温度調整をし、なめらかにする。</t>
+    <rPh sb="6" eb="10">
+      <t>オンドチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カカオマスの温度調整をし、なめらかにする。
+温度調節はかなり繊細な作業なので、慎重に。</t>
+    <rPh sb="6" eb="10">
+      <t>オンドチョウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウセツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センサイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼いた豆類の殻を取りさる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マメルイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1614,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1673,7 +1729,7 @@
         <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -1685,7 +1741,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>58</v>
@@ -1693,7 +1749,7 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A35" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A36" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1730,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1787,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1817,13 +1873,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1844,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1859,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -1901,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1931,13 +1987,13 @@
         <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1958,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1973,7 +2029,7 @@
         <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -2015,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2072,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2102,13 +2158,13 @@
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2129,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2144,7 +2200,7 @@
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2159,13 +2215,13 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2186,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2201,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="R10" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2216,13 +2272,13 @@
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -2243,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2258,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2300,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2315,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2330,13 +2386,13 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2357,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2372,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2387,13 +2443,13 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2414,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2429,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="R14" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -2438,22 +2494,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2004</v>
+        <v>3001</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2465,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>100</v>
@@ -2486,7 +2542,7 @@
         <v>6</v>
       </c>
       <c r="R15" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -2495,22 +2551,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2005</v>
+        <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -2522,19 +2578,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>100</v>
@@ -2543,55 +2599,55 @@
         <v>6</v>
       </c>
       <c r="R16" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2006</v>
+        <v>3003</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
         <v>119</v>
       </c>
-      <c r="F17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>10</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>133</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17">
         <v>100</v>
@@ -2599,32 +2655,32 @@
       <c r="Q17">
         <v>6</v>
       </c>
-      <c r="R17" t="s">
-        <v>116</v>
+      <c r="R17" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3001</v>
+        <v>4001</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2636,19 +2692,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>100</v>
@@ -2656,32 +2712,32 @@
       <c r="Q18">
         <v>6</v>
       </c>
-      <c r="R18" t="s">
-        <v>17</v>
+      <c r="R18" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3002</v>
+        <v>4002</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2693,19 +2749,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19">
         <v>100</v>
@@ -2713,32 +2769,32 @@
       <c r="Q19">
         <v>6</v>
       </c>
-      <c r="R19" t="s">
-        <v>21</v>
+      <c r="R19" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3003</v>
+        <v>4003</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2750,19 +2806,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20">
         <v>100</v>
@@ -2771,31 +2827,31 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2813,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2828,31 +2884,31 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4002</v>
+        <v>4005</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2864,16 +2920,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -2884,8 +2940,8 @@
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>109</v>
+      <c r="R22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
@@ -2894,19 +2950,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2921,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>100</v>
@@ -2942,28 +2998,28 @@
         <v>6</v>
       </c>
       <c r="R23" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4004</v>
+        <v>4007</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2978,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>100</v>
@@ -2998,8 +3054,8 @@
       <c r="Q24">
         <v>6</v>
       </c>
-      <c r="R24" s="2" t="s">
-        <v>81</v>
+      <c r="R24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -3008,22 +3064,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4005</v>
+        <v>4008</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -3041,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>100</v>
@@ -3056,7 +3112,7 @@
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -3065,22 +3121,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5001</v>
+        <v>4008</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3092,19 +3148,19 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>100</v>
@@ -3113,7 +3169,7 @@
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3122,19 +3178,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6001</v>
+        <v>5001</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -3149,19 +3205,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3170,7 +3226,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3179,19 +3235,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7001</v>
+        <v>6001</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -3206,19 +3262,19 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P28">
         <v>100</v>
@@ -3227,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3236,22 +3292,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C29" t="s">
         <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3269,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3284,7 +3340,7 @@
         <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -3293,22 +3349,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3326,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>100</v>
@@ -3341,7 +3397,7 @@
         <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -3350,19 +3406,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C31" t="s">
         <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>6</v>
@@ -3383,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3398,7 +3454,7 @@
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3407,22 +3463,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3434,19 +3490,19 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P32">
         <v>100</v>
@@ -3455,31 +3511,31 @@
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C33" t="s">
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3497,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>8</v>
@@ -3511,32 +3567,32 @@
       <c r="Q33">
         <v>6</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>89</v>
+      <c r="R33" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C34" t="s">
         <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3554,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
         <v>8</v>
@@ -3568,8 +3624,8 @@
       <c r="Q34">
         <v>6</v>
       </c>
-      <c r="R34" t="s">
-        <v>142</v>
+      <c r="R34" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -3578,22 +3634,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3605,16 +3661,16 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>8</v>
@@ -3626,7 +3682,64 @@
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>9003</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>119</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>8</v>
+      </c>
+      <c r="P36">
+        <v>100</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850D602-27F9-4D2A-952F-0E2ECF74C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC8940-08A6-4126-8705-AB4A5F94B0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2160" windowWidth="23310" windowHeight="12720" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23310" windowHeight="12720" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -392,13 +392,6 @@
   </si>
   <si>
     <t>Cookie_Study</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クッキーのお勉強</t>
-    <rPh sb="6" eb="8">
-      <t>ベンキョウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -572,14 +565,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スウィーツ・バタフライ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Sweats_Buttelfy</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>光で作ったちょうちょや葉っぱを飛ばす</t>
     <rPh sb="0" eb="1">
       <t>ヒカ</t>
@@ -842,14 +827,6 @@
   </si>
   <si>
     <t>Ice_Cube</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オーバー・ラン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Over_Run</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -940,23 +917,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>幸せの思い出</t>
-    <rPh sb="0" eb="1">
-      <t>シアワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Memories_of_Happy</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>草花のエキスを抽出し、ポーションを作る</t>
     <rPh sb="0" eb="2">
       <t>クサバナ</t>
@@ -1283,6 +1243,105 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Buttelfy_illumination</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バタフライ・ルミネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真実のハート</t>
+    <rPh sb="0" eb="2">
+      <t>シンジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>True_of_Myheart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイスの気持ち</t>
+    <rPh sb="4" eb="6">
+      <t>キモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキー・パワー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Heart_of_Icecream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュガーポット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>液体を固めて、シュガーを作り出す</t>
+    <rPh sb="0" eb="2">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>様々な液体を固めて、
+不思議なシュガーを作り出すよ！
+ラベンダーポーション　→　ラベンダーシュガー
+砂糖水からは、氷砂糖
+ミルクは、ミルキーシュガー（真っ白で牛乳風味のお砂糖）
+など</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>サトウミズ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>コオリザトウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>ギュウニュウフウミ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>サトウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1670,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1696,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1729,7 +1788,7 @@
         <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -1741,7 +1800,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>58</v>
@@ -1749,7 +1808,7 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A36" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A37" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1786,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1801,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1819,10 +1878,10 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" t="s">
         <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1843,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1858,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1873,13 +1932,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1900,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1915,7 +1974,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -1927,7 +1986,7 @@
         <v>1009</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
@@ -1957,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1984,16 +2043,16 @@
         <v>1010</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2014,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -2029,7 +2088,7 @@
         <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -2041,16 +2100,16 @@
         <v>1003</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2071,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2086,7 +2145,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -2098,16 +2157,16 @@
         <v>1004</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
         <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2128,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2143,7 +2202,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2155,16 +2214,16 @@
         <v>1006</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2185,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2200,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2212,16 +2271,16 @@
         <v>1007</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2242,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2257,7 +2316,7 @@
         <v>6</v>
       </c>
       <c r="R10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2269,16 +2328,16 @@
         <v>1008</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -2299,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2314,7 +2373,7 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2356,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2371,7 +2430,7 @@
         <v>6</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2386,13 +2445,13 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2413,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2428,7 +2487,7 @@
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2443,13 +2502,13 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2470,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2485,28 +2544,28 @@
         <v>6</v>
       </c>
       <c r="R14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2527,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>100</v>
@@ -2541,8 +2600,8 @@
       <c r="Q15">
         <v>6</v>
       </c>
-      <c r="R15" t="s">
-        <v>17</v>
+      <c r="R15" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -2551,22 +2610,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -2584,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2599,28 +2658,28 @@
         <v>6</v>
       </c>
       <c r="R16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -2641,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2655,32 +2714,32 @@
       <c r="Q17">
         <v>6</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>85</v>
+      <c r="R17" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4001</v>
+        <v>3003</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2692,19 +2751,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P18">
         <v>100</v>
@@ -2713,31 +2772,31 @@
         <v>6</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2749,13 +2808,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2770,31 +2829,31 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2812,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2827,28 +2886,28 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2863,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2884,31 +2943,31 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2920,16 +2979,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -2940,8 +2999,8 @@
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" t="s">
-        <v>33</v>
+      <c r="R22" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
@@ -2950,22 +3009,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2983,13 +3042,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>100</v>
@@ -2998,7 +3057,7 @@
         <v>6</v>
       </c>
       <c r="R23" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -3007,19 +3066,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3040,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P24">
         <v>100</v>
@@ -3055,7 +3114,7 @@
         <v>6</v>
       </c>
       <c r="R24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -3064,19 +3123,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3097,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P25">
         <v>100</v>
@@ -3112,7 +3171,7 @@
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -3127,13 +3186,13 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3154,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P26">
         <v>100</v>
@@ -3169,7 +3228,7 @@
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3178,22 +3237,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5001</v>
+        <v>4008</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3205,19 +3264,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3226,7 +3285,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3235,19 +3294,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6001</v>
+        <v>5001</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -3262,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P28">
         <v>100</v>
@@ -3283,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3292,19 +3351,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7001</v>
+        <v>6001</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -3319,19 +3378,19 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <v>100</v>
@@ -3340,7 +3399,7 @@
         <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -3349,22 +3408,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3382,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3397,7 +3456,7 @@
         <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -3406,22 +3465,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3439,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P31">
         <v>100</v>
@@ -3454,7 +3513,7 @@
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3463,19 +3522,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3496,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3511,7 +3570,7 @@
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -3520,22 +3579,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3547,19 +3606,19 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P33">
         <v>100</v>
@@ -3568,31 +3627,31 @@
         <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
         <v>89</v>
       </c>
-      <c r="E34" t="s">
-        <v>86</v>
-      </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3610,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <v>8</v>
@@ -3624,32 +3683,32 @@
       <c r="Q34">
         <v>6</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>88</v>
+      <c r="R34" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3667,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>8</v>
@@ -3681,8 +3740,8 @@
       <c r="Q35">
         <v>6</v>
       </c>
-      <c r="R35" t="s">
-        <v>126</v>
+      <c r="R35" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
@@ -3691,22 +3750,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3718,16 +3777,16 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>8</v>
@@ -3739,7 +3798,64 @@
         <v>6</v>
       </c>
       <c r="R36" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>9003</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>114</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>8</v>
+      </c>
+      <c r="P37">
+        <v>100</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC8940-08A6-4126-8705-AB4A5F94B0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3346C745-2BAD-4E4F-82C7-32810979F6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23310" windowHeight="12720" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24465" windowHeight="12720" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -1343,6 +1343,31 @@
     <rPh sb="86" eb="88">
       <t>サトウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキー・ファイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cookie_SecondBake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーをさらに焼くことで、サクサク感を増す。</t>
+    <rPh sb="8" eb="9">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーをさらに焼くことで、サクサク感を増す。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1729,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1808,7 +1833,7 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A37" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A38" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -2376,40 +2401,40 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2001</v>
+        <v>1009</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>2</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2421,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P12">
         <v>100</v>
@@ -2430,7 +2455,7 @@
         <v>6</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2439,19 +2464,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2460,13 +2485,13 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2486,8 +2511,8 @@
       <c r="Q13">
         <v>6</v>
       </c>
-      <c r="R13" t="s">
-        <v>108</v>
+      <c r="R13" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2496,19 +2521,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2517,13 +2542,13 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2544,7 +2569,7 @@
         <v>6</v>
       </c>
       <c r="R14" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2562,10 +2587,10 @@
         <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2600,29 +2625,29 @@
       <c r="Q15">
         <v>6</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>147</v>
+      <c r="R15" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2649,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>100</v>
@@ -2657,8 +2682,8 @@
       <c r="Q16">
         <v>6</v>
       </c>
-      <c r="R16" t="s">
-        <v>17</v>
+      <c r="R16" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
@@ -2667,22 +2692,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2715,28 +2740,28 @@
         <v>6</v>
       </c>
       <c r="R17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -2771,32 +2796,32 @@
       <c r="Q18">
         <v>6</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>82</v>
+      <c r="R18" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4001</v>
+        <v>3003</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2808,19 +2833,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <v>100</v>
@@ -2829,31 +2854,31 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2865,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2886,31 +2911,31 @@
         <v>6</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2928,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2943,28 +2968,28 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2979,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3000,31 +3025,31 @@
         <v>6</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -3036,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3045,7 +3070,7 @@
         <v>114</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -3056,8 +3081,8 @@
       <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" t="s">
-        <v>33</v>
+      <c r="R23" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -3066,22 +3091,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -3102,7 +3127,7 @@
         <v>114</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -3114,7 +3139,7 @@
         <v>6</v>
       </c>
       <c r="R24" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -3123,19 +3148,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3171,7 +3196,7 @@
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -3180,19 +3205,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3228,7 +3253,7 @@
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3246,10 +3271,10 @@
         <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -3285,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3294,22 +3319,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5001</v>
+        <v>4008</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3321,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3333,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P28">
         <v>100</v>
@@ -3342,7 +3367,7 @@
         <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3351,19 +3376,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6001</v>
+        <v>5001</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -3378,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3390,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P29">
         <v>100</v>
@@ -3399,7 +3424,7 @@
         <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -3408,19 +3433,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7001</v>
+        <v>6001</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -3435,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3447,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P30">
         <v>100</v>
@@ -3456,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -3465,22 +3490,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C31" t="s">
         <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3513,7 +3538,7 @@
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3522,22 +3547,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3561,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P32">
         <v>100</v>
@@ -3570,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -3579,19 +3604,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -3627,7 +3652,7 @@
         <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -3636,22 +3661,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3663,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3672,10 +3697,10 @@
         <v>114</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P34">
         <v>100</v>
@@ -3684,31 +3709,31 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3729,7 +3754,7 @@
         <v>114</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>8</v>
@@ -3740,32 +3765,32 @@
       <c r="Q35">
         <v>6</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>85</v>
+      <c r="R35" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C36" t="s">
         <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3786,7 +3811,7 @@
         <v>114</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>8</v>
@@ -3797,8 +3822,8 @@
       <c r="Q36">
         <v>6</v>
       </c>
-      <c r="R36" t="s">
-        <v>119</v>
+      <c r="R36" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -3807,22 +3832,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3834,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3843,7 +3868,7 @@
         <v>114</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>8</v>
@@ -3855,6 +3880,63 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>9003</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>114</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>8</v>
+      </c>
+      <c r="P38">
+        <v>100</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38" t="s">
         <v>110</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_magicSkillListDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3346C745-2BAD-4E4F-82C7-32810979F6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6351E-7BC8-4E76-82C1-66219E54B996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24465" windowHeight="12720" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2715" yWindow="1155" windowWidth="24420" windowHeight="14295" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="150">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -773,20 +773,6 @@
     <rPh sb="20" eb="21">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>植物栽培&lt;未使用&gt;</t>
-    <rPh sb="0" eb="4">
-      <t>ショクブツサイバイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Plant_Growth_NOUSE</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1754,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1813,7 +1799,7 @@
         <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -1825,7 +1811,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>58</v>
@@ -1833,7 +1819,7 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A38" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A37" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1870,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -1903,7 +1889,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -1927,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -1984,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2008,22 +1994,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2041,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -2056,7 +2042,7 @@
         <v>6</v>
       </c>
       <c r="R5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -2065,22 +2051,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2092,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2113,31 +2099,31 @@
         <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -2149,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2170,31 +2156,31 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -2212,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2227,7 +2213,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2236,19 +2222,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2263,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2283,8 +2269,8 @@
       <c r="Q9">
         <v>6</v>
       </c>
-      <c r="R9" t="s">
-        <v>100</v>
+      <c r="R9" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2293,19 +2279,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2320,13 +2306,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2340,32 +2326,32 @@
       <c r="Q10">
         <v>6</v>
       </c>
-      <c r="R10" t="s">
-        <v>137</v>
+      <c r="R10" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1008</v>
+        <v>2001</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -2377,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>100</v>
@@ -2398,55 +2384,55 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1009</v>
+        <v>2002</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>100</v>
@@ -2454,8 +2440,8 @@
       <c r="Q12">
         <v>6</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>151</v>
+      <c r="R12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2464,19 +2450,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2497,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2511,8 +2497,8 @@
       <c r="Q13">
         <v>6</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>111</v>
+      <c r="R13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2521,19 +2507,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2542,19 +2528,19 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2568,29 +2554,29 @@
       <c r="Q14">
         <v>6</v>
       </c>
-      <c r="R14" t="s">
-        <v>108</v>
+      <c r="R14" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2003</v>
+        <v>3001</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2611,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>100</v>
@@ -2626,31 +2612,31 @@
         <v>6</v>
       </c>
       <c r="R15" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2003</v>
+        <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -2668,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>100</v>
@@ -2682,32 +2668,32 @@
       <c r="Q16">
         <v>6</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>147</v>
+      <c r="R16" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2725,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2739,32 +2725,32 @@
       <c r="Q17">
         <v>6</v>
       </c>
-      <c r="R17" t="s">
-        <v>17</v>
+      <c r="R17" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3002</v>
+        <v>4001</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2776,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2788,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>100</v>
@@ -2796,8 +2782,8 @@
       <c r="Q18">
         <v>6</v>
       </c>
-      <c r="R18" t="s">
-        <v>21</v>
+      <c r="R18" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -2806,22 +2792,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3003</v>
+        <v>4002</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2833,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2845,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19">
         <v>100</v>
@@ -2854,31 +2840,31 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2890,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2920,22 +2906,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4002</v>
+        <v>4004</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2947,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2968,31 +2954,31 @@
         <v>6</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4003</v>
+        <v>4005</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -3004,16 +2990,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -3024,29 +3010,29 @@
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>134</v>
+      <c r="R22" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4004</v>
+        <v>4006</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -3061,13 +3047,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3081,8 +3067,8 @@
       <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>123</v>
+      <c r="R23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -3091,22 +3077,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -3124,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -3139,7 +3125,7 @@
         <v>6</v>
       </c>
       <c r="R24" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -3148,19 +3134,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4006</v>
+        <v>4008</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3181,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -3196,7 +3182,7 @@
         <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -3205,19 +3191,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3238,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -3253,7 +3239,7 @@
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -3262,22 +3248,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4008</v>
+        <v>5001</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3289,19 +3275,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3310,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -3319,22 +3305,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4008</v>
+        <v>6002</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3352,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P28">
         <v>100</v>
@@ -3367,7 +3353,7 @@
         <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -3376,19 +3362,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5001</v>
+        <v>6003</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -3403,19 +3389,19 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <v>100</v>
@@ -3424,7 +3410,7 @@
         <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -3433,19 +3419,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6001</v>
+        <v>7001</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -3460,19 +3446,19 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>100</v>
@@ -3481,7 +3467,7 @@
         <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -3490,22 +3476,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7001</v>
+        <v>7002</v>
       </c>
       <c r="C31" t="s">
         <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3523,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3538,7 +3524,7 @@
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -3547,22 +3533,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7002</v>
+        <v>8001</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G32">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3580,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="O32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P32">
         <v>100</v>
@@ -3595,7 +3581,7 @@
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -3604,19 +3590,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8001</v>
+        <v>8002</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -3637,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3652,7 +3638,7 @@
         <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -3661,22 +3647,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8002</v>
+        <v>9001</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3688,19 +3674,19 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P34">
         <v>100</v>
@@ -3709,31 +3695,31 @@
         <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9001</v>
+        <v>9002</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3751,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>8</v>
@@ -3765,32 +3751,32 @@
       <c r="Q35">
         <v>6</v>
       </c>
-      <c r="R35" t="s">
-        <v>113</v>
+      <c r="R35" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9002</v>
+        <v>9004</v>
       </c>
       <c r="C36" t="s">
         <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3808,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>8</v>
@@ -3822,8 +3808,8 @@
       <c r="Q36">
         <v>6</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>85</v>
+      <c r="R36" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -3832,22 +3818,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3859,16 +3845,16 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <v>8</v>
@@ -3880,64 +3866,7 @@
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>9003</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>114</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>8</v>
-      </c>
-      <c r="P38">
-        <v>100</v>
-      </c>
-      <c r="Q38">
-        <v>6</v>
-      </c>
-      <c r="R38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
